--- a/flat_lists/DER-19_Single_cell_markergenes_TPM.xlsx
+++ b/flat_lists/DER-19_Single_cell_markergenes_TPM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushi/Google Drive/WorkatYale/P2-brain/04-09-2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\263010_5_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9920AA-AB67-4A8C-B883-D574997DA49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="780" windowWidth="13800" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="636" yWindow="780" windowWidth="13800" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1475,13 +1476,13 @@
     <t>CellType</t>
   </si>
   <si>
-    <t>GeneName</t>
+    <t>Gene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1522,6 +1523,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1789,19 +1793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>481</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>454</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>454</v>
       </c>
@@ -1825,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>454</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>454</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>454</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>454</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>454</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>454</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>454</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>454</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>454</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>454</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>454</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>456</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>456</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>456</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>456</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>456</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>456</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>456</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>456</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>456</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>456</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>456</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>457</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>457</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>457</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>457</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>457</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>457</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>457</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>457</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>457</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>459</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>459</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>459</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>459</v>
       </c>
@@ -2145,7 +2149,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>459</v>
       </c>
@@ -2153,7 +2157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>459</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>459</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>459</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>459</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>459</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>459</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>459</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>459</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>459</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>459</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>459</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>459</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>460</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>460</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>460</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>460</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>460</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>460</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>460</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>460</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>460</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>460</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>460</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>460</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>460</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>460</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>460</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>460</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>460</v>
       </c>
@@ -2401,7 +2405,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>460</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>461</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>461</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>461</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>461</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>461</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>461</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>461</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>461</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>461</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>461</v>
       </c>
@@ -2505,7 +2509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>461</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>461</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>461</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>461</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>461</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>461</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>461</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>461</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>461</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>461</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>461</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>461</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>461</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>461</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>461</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>461</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>461</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>461</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>461</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>461</v>
       </c>
@@ -2665,7 +2669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>461</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>461</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>461</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>461</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>461</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>461</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>461</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>462</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>462</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>462</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>462</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>462</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>462</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>463</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>463</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>463</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>463</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>463</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>463</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>463</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>463</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>463</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>463</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>463</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>463</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>463</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>463</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>463</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>463</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>463</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>463</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>463</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>463</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>463</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>463</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>463</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>463</v>
       </c>
@@ -2961,7 +2965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>463</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>463</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>463</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>463</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>463</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>463</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>463</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>463</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>463</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>463</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>463</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>463</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>463</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>463</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>463</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>463</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>463</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -3105,7 +3109,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>463</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>463</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>463</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>463</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>463</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>463</v>
       </c>
@@ -3161,7 +3165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>463</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>463</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>463</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>463</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>463</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>463</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>463</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>463</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>463</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>463</v>
       </c>
@@ -3241,7 +3245,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>463</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>463</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>463</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>463</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>463</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>463</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>464</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>464</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>466</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>466</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>466</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>466</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>466</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>466</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>466</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>467</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>467</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>467</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>467</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>467</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>467</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>467</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>467</v>
       </c>
@@ -3425,7 +3429,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>467</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>467</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>467</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>467</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>467</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>467</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>467</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>467</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>467</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>467</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>467</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>467</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>468</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>468</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>468</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>468</v>
       </c>
@@ -3561,7 +3565,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>468</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>468</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>468</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>468</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>468</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>468</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>469</v>
       </c>
@@ -3617,7 +3621,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>469</v>
       </c>
@@ -3625,7 +3629,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>469</v>
       </c>
@@ -3633,7 +3637,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>469</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>469</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>469</v>
       </c>
@@ -3657,7 +3661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>469</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>469</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -3681,7 +3685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>469</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>470</v>
       </c>
@@ -3705,7 +3709,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>470</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>470</v>
       </c>
@@ -3721,7 +3725,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>470</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>470</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>470</v>
       </c>
@@ -3745,7 +3749,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>471</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>471</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>471</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>471</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>471</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>471</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>471</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>471</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>471</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>471</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>471</v>
       </c>
@@ -3833,7 +3837,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>471</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>471</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>472</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>472</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>472</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>472</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>473</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>473</v>
       </c>
@@ -3897,7 +3901,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>473</v>
       </c>
@@ -3905,7 +3909,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>473</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>473</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>473</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>473</v>
       </c>
@@ -3937,7 +3941,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>473</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>473</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>473</v>
       </c>
@@ -3961,7 +3965,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>473</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>473</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>473</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>473</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>473</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>473</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>473</v>
       </c>
@@ -4017,7 +4021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>473</v>
       </c>
@@ -4025,7 +4029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>473</v>
       </c>
@@ -4033,7 +4037,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>473</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>473</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>473</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>473</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>473</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>473</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>473</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>473</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>473</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>473</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>473</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>473</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>473</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>473</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>473</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>473</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>473</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>473</v>
       </c>
@@ -4177,7 +4181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>473</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>473</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>473</v>
       </c>
@@ -4201,7 +4205,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>474</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>474</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>474</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>474</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>474</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>474</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>474</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>474</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>474</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>474</v>
       </c>
@@ -4281,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>474</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>474</v>
       </c>
@@ -4297,7 +4301,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>474</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>474</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>474</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>474</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>474</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>474</v>
       </c>
@@ -4345,7 +4349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>474</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>474</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>474</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>474</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>474</v>
       </c>
@@ -4385,7 +4389,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>474</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>474</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>474</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>474</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>474</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>474</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>474</v>
       </c>
@@ -4441,7 +4445,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>474</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>474</v>
       </c>
@@ -4457,7 +4461,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>474</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>474</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>474</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>474</v>
       </c>
@@ -4489,7 +4493,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>474</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>474</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>474</v>
       </c>
@@ -4513,7 +4517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>474</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>474</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>474</v>
       </c>
@@ -4537,7 +4541,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>474</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>474</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>474</v>
       </c>
@@ -4561,7 +4565,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>474</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>474</v>
       </c>
@@ -4577,7 +4581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>474</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>474</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>474</v>
       </c>
@@ -4601,7 +4605,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>474</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>474</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>474</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>474</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>474</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>474</v>
       </c>
@@ -4649,7 +4653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>474</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>474</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>474</v>
       </c>
@@ -4673,7 +4677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>474</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>474</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>474</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>474</v>
       </c>
@@ -4705,7 +4709,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>474</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>474</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>474</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>474</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>474</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>474</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>474</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>474</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>474</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>474</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>474</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>474</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>474</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>474</v>
       </c>
@@ -4817,7 +4821,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>474</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>474</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>474</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>474</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>474</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>474</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>475</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>475</v>
       </c>
@@ -4881,7 +4885,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>475</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>475</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>475</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>475</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>475</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>475</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>475</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>475</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>475</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>475</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>475</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>475</v>
       </c>
@@ -4977,7 +4981,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>475</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>475</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>475</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>476</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>476</v>
       </c>
@@ -5017,7 +5021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>476</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>476</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>476</v>
       </c>
@@ -5041,7 +5045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>476</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>476</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>476</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>476</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>476</v>
       </c>
@@ -5081,7 +5085,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>476</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>476</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>476</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>476</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>476</v>
       </c>
@@ -5121,7 +5125,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>476</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>476</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>476</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>476</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>476</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>476</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>476</v>
       </c>
@@ -5177,7 +5181,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>476</v>
       </c>
@@ -5185,7 +5189,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>476</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>476</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>476</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>476</v>
       </c>
@@ -5217,7 +5221,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>476</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>476</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>476</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>476</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>476</v>
       </c>
@@ -5257,7 +5261,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>476</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>476</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>476</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>476</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>476</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>476</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>476</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>478</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>478</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>478</v>
       </c>
@@ -5361,7 +5365,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>478</v>
       </c>
@@ -5369,7 +5373,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>478</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>478</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>478</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>478</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>478</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>478</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>478</v>
       </c>
@@ -5425,7 +5429,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>478</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>478</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>478</v>
       </c>
@@ -5465,7 +5469,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>478</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>478</v>
       </c>
@@ -5481,7 +5485,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>478</v>
       </c>
@@ -5489,7 +5493,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>478</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>478</v>
       </c>
@@ -5505,7 +5509,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>478</v>
       </c>
@@ -5513,7 +5517,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>478</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>477</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>477</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>477</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>477</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>477</v>
       </c>
@@ -5561,7 +5565,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>477</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>477</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>477</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>477</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>477</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>477</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>477</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>477</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>477</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>477</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>477</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>477</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>477</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>477</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>477</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>477</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>477</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>477</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>477</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>477</v>
       </c>
@@ -5737,7 +5741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>477</v>
       </c>
@@ -5745,7 +5749,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>477</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>477</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>477</v>
       </c>
@@ -5769,7 +5773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>477</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>477</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>477</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>477</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>477</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>477</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>477</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>477</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>477</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>477</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>477</v>
       </c>
@@ -5857,7 +5861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>477</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>477</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>477</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>477</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>479</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>479</v>
       </c>
@@ -5905,7 +5909,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>479</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>479</v>
       </c>
@@ -5921,7 +5925,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>479</v>
       </c>
@@ -5929,7 +5933,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>479</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>479</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>479</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>479</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>479</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>479</v>
       </c>
@@ -5977,7 +5981,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>479</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>479</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>479</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>479</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>479</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>479</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>479</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>479</v>
       </c>
@@ -6041,7 +6045,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>479</v>
       </c>
@@ -6049,7 +6053,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>479</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>479</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>479</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>479</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>479</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>479</v>
       </c>
@@ -6097,7 +6101,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>479</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>479</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>479</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>479</v>
       </c>
@@ -6129,7 +6133,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>479</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>479</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>479</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>479</v>
       </c>
@@ -6161,7 +6165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>479</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>479</v>
       </c>
@@ -6177,7 +6181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>479</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>479</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>479</v>
       </c>
@@ -6201,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>479</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>479</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>479</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>479</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>479</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>479</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>479</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>479</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>479</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>479</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>479</v>
       </c>
@@ -6289,7 +6293,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>479</v>
       </c>
@@ -6297,7 +6301,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>479</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>479</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>480</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>480</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>480</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>480</v>
       </c>
@@ -6345,7 +6349,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>480</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>480</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>480</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>480</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>480</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>480</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>480</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>480</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>480</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>480</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>480</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>480</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>480</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>480</v>
       </c>
@@ -6457,7 +6461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>480</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>480</v>
       </c>
@@ -6473,7 +6477,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>480</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>480</v>
       </c>
@@ -6489,7 +6493,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>480</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>480</v>
       </c>
@@ -6505,7 +6509,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>480</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>480</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>480</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>480</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>480</v>
       </c>
@@ -6545,7 +6549,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>480</v>
       </c>
@@ -6553,7 +6557,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>480</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>480</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>480</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>480</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>480</v>
       </c>
